--- a/SuppXLS/Scen_IND_NewRES.xlsx
+++ b/SuppXLS/Scen_IND_NewRES.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_011\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Model_Training_1\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{439D77E5-2623-4465-8B40-6DBCD621A5A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE9090F-FEF9-413C-BA42-8606A1246530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ind_Dem" sheetId="11" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0" shapeId="0">
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0" shapeId="0">
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -168,16 +160,19 @@
   </si>
   <si>
     <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>*0.95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +220,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +276,7 @@
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -289,7 +297,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,29 +310,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 4 2" xfId="6"/>
-    <cellStyle name="Normal 8" xfId="7"/>
-    <cellStyle name="Normal 9 2" xfId="8"/>
-    <cellStyle name="Normale_B2020" xfId="9"/>
-    <cellStyle name="Percent 2" xfId="10"/>
-    <cellStyle name="Percent 3" xfId="11"/>
-    <cellStyle name="Percent 3 2" xfId="12"/>
-    <cellStyle name="Percent 3 3" xfId="13"/>
-    <cellStyle name="Percent 4" xfId="14"/>
-    <cellStyle name="Percent 4 2" xfId="15"/>
-    <cellStyle name="Percent 4 3" xfId="16"/>
-    <cellStyle name="Percent 5" xfId="17"/>
-    <cellStyle name="Percent 6" xfId="18"/>
-    <cellStyle name="Percent 7" xfId="19"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="20"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 8" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 9 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normale_B2020" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Percent 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Percent 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Percent 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Percent 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Percent 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Percent 4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Percent 4 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Percent 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 7" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -870,37 +879,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:IV5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
@@ -913,7 +922,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -966,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -976,34 +985,34 @@
       <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
+      <c r="J4" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="L4" s="7"/>
       <c r="Q4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L10" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1016,7 +1025,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>18</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1114,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>